--- a/eVote tables.xlsx
+++ b/eVote tables.xlsx
@@ -1,43 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OSPanel\domains\house-vote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FD85E5-1AB5-4AC8-9321-E027AAEB71EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1690477-EB76-4537-92F2-38C22BA58A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5CA4C17A-1D73-4899-B037-CBCB53243911}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5CA4C17A-1D73-4899-B037-CBCB53243911}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="5" r:id="rId1"/>
     <sheet name="owners" sheetId="1" r:id="rId2"/>
     <sheet name="documents" sheetId="2" r:id="rId3"/>
     <sheet name="units" sheetId="3" r:id="rId4"/>
+    <sheet name="meetings" sheetId="6" r:id="rId5"/>
+    <sheet name="meeting_form" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="192">
   <si>
     <t>lastname</t>
   </si>
@@ -915,6 +908,48 @@
   </si>
   <si>
     <t>06.11.2020</t>
+  </si>
+  <si>
+    <t>meeting_id</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>shortcode</t>
+  </si>
+  <si>
+    <t>очное</t>
+  </si>
+  <si>
+    <t>заочное</t>
+  </si>
+  <si>
+    <t>очно-заочное</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>oz</t>
+  </si>
+  <si>
+    <t>date_meeting</t>
+  </si>
+  <si>
+    <t>date_vote_start</t>
+  </si>
+  <si>
+    <t>date_vote_end</t>
+  </si>
+  <si>
+    <t>meeting_form_id</t>
   </si>
 </sst>
 </file>
@@ -1389,22 +1424,22 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">_xlfn.CONCAT(RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999))</f>
-        <v>6590-9563-3947</v>
+        <v>8225-1325-4695</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F23" ca="1" si="0">_xlfn.CONCAT(RANDBETWEEN(0,99),RANDBETWEEN(0,99),RANDBETWEEN(0,999999))</f>
-        <v>3897211999</v>
+        <v>3322932726</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">_xlfn.CONCAT("+7", RANDBETWEEN(900,999), RANDBETWEEN(1000000,9999999))</f>
-        <v>+79283630974</v>
+        <v>+79975421713</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="str">
         <f ca="1">_xlfn.CONCAT("(NULL, '",B2,"', '",C2,"', '",D2,"' ,'",E2,"', '",F2,"', '",G2,"', '",H2,"'),")</f>
-        <v>(NULL, 'Раков', 'Тихон', 'Арсенович' ,'6590-9563-3947', '3897211999', '+79283630974', '1'),</v>
+        <v>(NULL, 'Раков', 'Тихон', 'Арсенович' ,'8225-1325-4695', '3322932726', '+79975421713', '1'),</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1419,22 +1454,22 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E25" ca="1" si="1">_xlfn.CONCAT(RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999))</f>
-        <v>7928-485-8061</v>
+        <v>4121-4570-850</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2835869777</v>
+        <v>891276951</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G25" ca="1" si="2">_xlfn.CONCAT("+7", RANDBETWEEN(900,999), RANDBETWEEN(1000000,9999999))</f>
-        <v>+79465407006</v>
+        <v>+79779811365</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I25" ca="1" si="3">_xlfn.CONCAT("(NULL, '",B3,"', '",C3,"', '",D3,"' ,'",E3,"', '",F3,"', '",G3,"', '",H3,"'),")</f>
-        <v>(NULL, 'Левина', 'Евдокия', 'Кирилловна' ,'7928-485-8061', '2835869777', '+79465407006', '1'),</v>
+        <v>(NULL, 'Левина', 'Евдокия', 'Кирилловна' ,'4121-4570-850', '891276951', '+79779811365', '1'),</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1449,22 +1484,22 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5275-5102-3465</v>
+        <v>7290-4963-6958</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9894748886</v>
+        <v>5987974532</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79002098372</v>
+        <v>+79052442048</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Карпов', 'Мирон', 'Владиславович' ,'5275-5102-3465', '9894748886', '+79002098372', '1'),</v>
+        <v>(NULL, 'Карпов', 'Мирон', 'Владиславович' ,'7290-4963-6958', '5987974532', '+79052442048', '1'),</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1479,22 +1514,22 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7821-9636-3306</v>
+        <v>4080-1280-6442</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6856733587</v>
+        <v>759176446</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79295686406</v>
+        <v>+79811491240</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Гаврилова', 'Елизавета', 'Глебовна' ,'7821-9636-3306', '6856733587', '+79295686406', '1'),</v>
+        <v>(NULL, 'Гаврилова', 'Елизавета', 'Глебовна' ,'4080-1280-6442', '759176446', '+79811491240', '1'),</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1509,22 +1544,22 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8862-5634-2658</v>
+        <v>6762-904-1213</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5976783261</v>
+        <v>9658981227</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79633018151</v>
+        <v>+79231300555</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Калинин', 'Антон', 'Максимович' ,'8862-5634-2658', '5976783261', '+79633018151', '1'),</v>
+        <v>(NULL, 'Калинин', 'Антон', 'Максимович' ,'6762-904-1213', '9658981227', '+79231300555', '1'),</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,22 +1574,22 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2876-662-5152</v>
+        <v>7883-2945-8683</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4272546542</v>
+        <v>3179889774</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79678683281</v>
+        <v>+79051304896</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Волков', 'Ярослав', 'Даниилович' ,'2876-662-5152', '4272546542', '+79678683281', '1'),</v>
+        <v>(NULL, 'Волков', 'Ярослав', 'Даниилович' ,'7883-2945-8683', '3179889774', '+79051304896', '1'),</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1569,22 +1604,22 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1433-9164-9813</v>
+        <v>3085-5884-4257</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>880191616</v>
+        <v>7559952502</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79924458746</v>
+        <v>+79631923382</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Филатова', 'Евгения', 'Артемьевна' ,'1433-9164-9813', '880191616', '+79924458746', '1'),</v>
+        <v>(NULL, 'Филатова', 'Евгения', 'Артемьевна' ,'3085-5884-4257', '7559952502', '+79631923382', '1'),</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1599,22 +1634,22 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8756-1933-226</v>
+        <v>8868-8067-688</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>678831937</v>
+        <v>2638855501</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79105210357</v>
+        <v>+79289688990</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Титова', 'Есения', 'Мироновна' ,'8756-1933-226', '678831937', '+79105210357', '1'),</v>
+        <v>(NULL, 'Титова', 'Есения', 'Мироновна' ,'8868-8067-688', '2638855501', '+79289688990', '1'),</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1629,22 +1664,22 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6899-3725-1399</v>
+        <v>1906-7962-8654</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6129700177</v>
+        <v>392476556</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79124296923</v>
+        <v>+79466721135</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Калашников', 'Лев', 'Никитич' ,'6899-3725-1399', '6129700177', '+79124296923', '1'),</v>
+        <v>(NULL, 'Калашников', 'Лев', 'Никитич' ,'1906-7962-8654', '392476556', '+79466721135', '1'),</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1659,22 +1694,22 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4019-2683-1884</v>
+        <v>9840-1159-5047</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>296110646</v>
+        <v>173155562</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79269182036</v>
+        <v>+79468416020</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Суслов', 'Иван', 'Максимович' ,'4019-2683-1884', '296110646', '+79269182036', '1'),</v>
+        <v>(NULL, 'Суслов', 'Иван', 'Максимович' ,'9840-1159-5047', '173155562', '+79468416020', '1'),</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1689,22 +1724,22 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8275-7645-156</v>
+        <v>9032-9036-9734</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4312482476</v>
+        <v>141444866</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79087245551</v>
+        <v>+79335103234</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Власов', 'Макар', 'Владимирович' ,'8275-7645-156', '4312482476', '+79087245551', '1'),</v>
+        <v>(NULL, 'Власов', 'Макар', 'Владимирович' ,'9032-9036-9734', '141444866', '+79335103234', '1'),</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1719,22 +1754,22 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1074-1426-1437</v>
+        <v>3639-7169-5808</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6199882102</v>
+        <v>4017759240</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79053018703</v>
+        <v>+79637024137</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Евдокимов', 'Ярослав', 'Николаевич' ,'1074-1426-1437', '6199882102', '+79053018703', '1'),</v>
+        <v>(NULL, 'Евдокимов', 'Ярослав', 'Николаевич' ,'3639-7169-5808', '4017759240', '+79637024137', '1'),</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1749,22 +1784,22 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5014-6911-7499</v>
+        <v>2615-5284-6764</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8594792024</v>
+        <v>5438241935</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79099236317</v>
+        <v>+79695306873</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Котова', 'Ева', 'Ярославовна' ,'5014-6911-7499', '8594792024', '+79099236317', '1'),</v>
+        <v>(NULL, 'Котова', 'Ева', 'Ярославовна' ,'2615-5284-6764', '5438241935', '+79695306873', '1'),</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1779,22 +1814,22 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4731-1504-4727</v>
+        <v>6825-2616-5401</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9021274315</v>
+        <v>5928919732</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79499564499</v>
+        <v>+79458318015</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Андреев', 'Артём', 'Андреевич' ,'4731-1504-4727', '9021274315', '+79499564499', '1'),</v>
+        <v>(NULL, 'Андреев', 'Артём', 'Андреевич' ,'6825-2616-5401', '5928919732', '+79458318015', '1'),</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1809,22 +1844,22 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>5190-1686-3809</v>
+        <v>9032-5108-7520</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4430573081</v>
+        <v>8389643938</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79141921167</v>
+        <v>+79392817296</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Устинова', 'Александра', 'Тимофеевна' ,'5190-1686-3809', '4430573081', '+79141921167', '1'),</v>
+        <v>(NULL, 'Устинова', 'Александра', 'Тимофеевна' ,'9032-5108-7520', '8389643938', '+79392817296', '1'),</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1839,22 +1874,22 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4431-4288-9740</v>
+        <v>4545-5977-6261</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2330875680</v>
+        <v>7023370867</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79308832824</v>
+        <v>+79798791858</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Смирнова', 'Алёна', 'Александровна' ,'4431-4288-9740', '2330875680', '+79308832824', '1'),</v>
+        <v>(NULL, 'Смирнова', 'Алёна', 'Александровна' ,'4545-5977-6261', '7023370867', '+79798791858', '1'),</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1869,22 +1904,22 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4032-3912-2099</v>
+        <v>949-2838-2820</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5077681740</v>
+        <v>6948836041</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79454152325</v>
+        <v>+79892636487</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Смирнов', 'Лев', 'Олегович' ,'4032-3912-2099', '5077681740', '+79454152325', '1'),</v>
+        <v>(NULL, 'Смирнов', 'Лев', 'Олегович' ,'949-2838-2820', '6948836041', '+79892636487', '1'),</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1899,22 +1934,22 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2658-5465-1885</v>
+        <v>768-7828-9171</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3642573807</v>
+        <v>7529344125</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79403178023</v>
+        <v>+79014986129</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанов', 'Фёдор', 'Филиппович' ,'2658-5465-1885', '3642573807', '+79403178023', '1'),</v>
+        <v>(NULL, 'Степанов', 'Фёдор', 'Филиппович' ,'768-7828-9171', '7529344125', '+79014986129', '1'),</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1929,22 +1964,22 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3871-1791-8963</v>
+        <v>8722-8758-3600</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4771144343</v>
+        <v>8570353458</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79157910402</v>
+        <v>+79575184908</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Кольцов', 'Дмитрий', 'Ярославович' ,'3871-1791-8963', '4771144343', '+79157910402', '1'),</v>
+        <v>(NULL, 'Кольцов', 'Дмитрий', 'Ярославович' ,'8722-8758-3600', '8570353458', '+79575184908', '1'),</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1959,22 +1994,22 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2135-8470-2730</v>
+        <v>659-7768-5740</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>264424657</v>
+        <v>687409174</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79304407846</v>
+        <v>+79542959700</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанова', 'Елена', 'Васильевна' ,'2135-8470-2730', '264424657', '+79304407846', '1'),</v>
+        <v>(NULL, 'Степанова', 'Елена', 'Васильевна' ,'659-7768-5740', '687409174', '+79542959700', '1'),</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -1989,22 +2024,22 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3179-1245-7450</v>
+        <v>2457-7881-3152</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7771714202</v>
+        <v>3892143269</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79555635816</v>
+        <v>+79661581542</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Голованова', 'Виктория', 'Григорьевна' ,'3179-1245-7450', '7771714202', '+79555635816', '1'),</v>
+        <v>(NULL, 'Голованова', 'Виктория', 'Григорьевна' ,'2457-7881-3152', '3892143269', '+79661581542', '1'),</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -2019,22 +2054,22 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8183-4940-3818</v>
+        <v>4596-3752-2410</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2938408193</v>
+        <v>8869515160</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79171015914</v>
+        <v>+79809475212</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Тимофеева', 'Анастасия', 'Ярославовна' ,'8183-4940-3818', '2938408193', '+79171015914', '1'),</v>
+        <v>(NULL, 'Тимофеева', 'Анастасия', 'Ярославовна' ,'4596-3752-2410', '8869515160', '+79809475212', '1'),</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -2049,22 +2084,22 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7333-3201-9939</v>
+        <v>2002-1260-9268</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ref="F11:F25" ca="1" si="4">_xlfn.CONCAT(RANDBETWEEN(0,99),RANDBETWEEN(0,99),RANDBETWEEN(0,999999))</f>
-        <v>7995359919</v>
+        <f t="shared" ref="F24:F25" ca="1" si="4">_xlfn.CONCAT(RANDBETWEEN(0,99),RANDBETWEEN(0,99),RANDBETWEEN(0,999999))</f>
+        <v>2341219079</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79157472653</v>
+        <v>+79196591475</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Шубина', 'Алиса', 'Фёдоровна' ,'7333-3201-9939', '7995359919', '+79157472653', '1'),</v>
+        <v>(NULL, 'Шубина', 'Алиса', 'Фёдоровна' ,'2002-1260-9268', '2341219079', '+79196591475', '1'),</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -2079,22 +2114,22 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4083-381-8833</v>
+        <v>1027-3906-3976</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4879984317</v>
+        <v>4298365082</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79998227066</v>
+        <v>+79791630221</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанов', 'Владислав', 'Александрович' ,'4083-381-8833', '4879984317', '+79998227066', '1'),</v>
+        <v>(NULL, 'Степанов', 'Владислав', 'Александрович' ,'1027-3906-3976', '4298365082', '+79791630221', '1'),</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -2117,7 +2152,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5AED7DF-48C5-4B53-960B-33E174968D4C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -4364,4 +4399,97 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57972067-0A70-470A-99DC-6BEB186132A8}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C95FD5-AB46-4F2A-AF99-079CCC13B408}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>184</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/eVote tables.xlsx
+++ b/eVote tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OSPanel\domains\house-vote\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1690477-EB76-4537-92F2-38C22BA58A25}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED68AF6-7285-48EC-9AED-D862D28FF411}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{5CA4C17A-1D73-4899-B037-CBCB53243911}"/>
   </bookViews>
@@ -1424,22 +1424,22 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">_xlfn.CONCAT(RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999))</f>
-        <v>8225-1325-4695</v>
+        <v>3117-6037-6988</v>
       </c>
       <c r="F2" t="str">
         <f t="shared" ref="F2:F23" ca="1" si="0">_xlfn.CONCAT(RANDBETWEEN(0,99),RANDBETWEEN(0,99),RANDBETWEEN(0,999999))</f>
-        <v>3322932726</v>
+        <v>1117982363</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">_xlfn.CONCAT("+7", RANDBETWEEN(900,999), RANDBETWEEN(1000000,9999999))</f>
-        <v>+79975421713</v>
+        <v>+79131552116</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="str">
         <f ca="1">_xlfn.CONCAT("(NULL, '",B2,"', '",C2,"', '",D2,"' ,'",E2,"', '",F2,"', '",G2,"', '",H2,"'),")</f>
-        <v>(NULL, 'Раков', 'Тихон', 'Арсенович' ,'8225-1325-4695', '3322932726', '+79975421713', '1'),</v>
+        <v>(NULL, 'Раков', 'Тихон', 'Арсенович' ,'3117-6037-6988', '1117982363', '+79131552116', '1'),</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1454,22 +1454,22 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E25" ca="1" si="1">_xlfn.CONCAT(RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999),"-",RANDBETWEEN(0,9999))</f>
-        <v>4121-4570-850</v>
+        <v>6744-2287-3371</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>891276951</v>
+        <v>3272902803</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G25" ca="1" si="2">_xlfn.CONCAT("+7", RANDBETWEEN(900,999), RANDBETWEEN(1000000,9999999))</f>
-        <v>+79779811365</v>
+        <v>+79281745175</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="str">
         <f t="shared" ref="I3:I25" ca="1" si="3">_xlfn.CONCAT("(NULL, '",B3,"', '",C3,"', '",D3,"' ,'",E3,"', '",F3,"', '",G3,"', '",H3,"'),")</f>
-        <v>(NULL, 'Левина', 'Евдокия', 'Кирилловна' ,'4121-4570-850', '891276951', '+79779811365', '1'),</v>
+        <v>(NULL, 'Левина', 'Евдокия', 'Кирилловна' ,'6744-2287-3371', '3272902803', '+79281745175', '1'),</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1484,22 +1484,22 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7290-4963-6958</v>
+        <v>3006-3443-693</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5987974532</v>
+        <v>7972527249</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79052442048</v>
+        <v>+79297539464</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Карпов', 'Мирон', 'Владиславович' ,'7290-4963-6958', '5987974532', '+79052442048', '1'),</v>
+        <v>(NULL, 'Карпов', 'Мирон', 'Владиславович' ,'3006-3443-693', '7972527249', '+79297539464', '1'),</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1514,22 +1514,22 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4080-1280-6442</v>
+        <v>95-1895-3928</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>759176446</v>
+        <v>368936345</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79811491240</v>
+        <v>+79873230487</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Гаврилова', 'Елизавета', 'Глебовна' ,'4080-1280-6442', '759176446', '+79811491240', '1'),</v>
+        <v>(NULL, 'Гаврилова', 'Елизавета', 'Глебовна' ,'95-1895-3928', '368936345', '+79873230487', '1'),</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -1544,22 +1544,22 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6762-904-1213</v>
+        <v>3934-6316-9979</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>9658981227</v>
+        <v>2764110409</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79231300555</v>
+        <v>+79996248246</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Калинин', 'Антон', 'Максимович' ,'6762-904-1213', '9658981227', '+79231300555', '1'),</v>
+        <v>(NULL, 'Калинин', 'Антон', 'Максимович' ,'3934-6316-9979', '2764110409', '+79996248246', '1'),</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>7883-2945-8683</v>
+        <v>4732-67-3728</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3179889774</v>
+        <v>2616459510</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79051304896</v>
+        <v>+79364349412</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Волков', 'Ярослав', 'Даниилович' ,'7883-2945-8683', '3179889774', '+79051304896', '1'),</v>
+        <v>(NULL, 'Волков', 'Ярослав', 'Даниилович' ,'4732-67-3728', '2616459510', '+79364349412', '1'),</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,22 +1604,22 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3085-5884-4257</v>
+        <v>5836-2675-8333</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7559952502</v>
+        <v>5774974876</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79631923382</v>
+        <v>+79946547801</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Филатова', 'Евгения', 'Артемьевна' ,'3085-5884-4257', '7559952502', '+79631923382', '1'),</v>
+        <v>(NULL, 'Филатова', 'Евгения', 'Артемьевна' ,'5836-2675-8333', '5774974876', '+79946547801', '1'),</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1634,22 +1634,22 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8868-8067-688</v>
+        <v>9106-3808-9184</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>2638855501</v>
+        <v>9691583541</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79289688990</v>
+        <v>+79248567283</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Титова', 'Есения', 'Мироновна' ,'8868-8067-688', '2638855501', '+79289688990', '1'),</v>
+        <v>(NULL, 'Титова', 'Есения', 'Мироновна' ,'9106-3808-9184', '9691583541', '+79248567283', '1'),</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1664,22 +1664,22 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1906-7962-8654</v>
+        <v>637-5097-5658</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>392476556</v>
+        <v>59697684</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79466721135</v>
+        <v>+79962282917</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Калашников', 'Лев', 'Никитич' ,'1906-7962-8654', '392476556', '+79466721135', '1'),</v>
+        <v>(NULL, 'Калашников', 'Лев', 'Никитич' ,'637-5097-5658', '59697684', '+79962282917', '1'),</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1694,22 +1694,22 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9840-1159-5047</v>
+        <v>8074-9064-4275</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>173155562</v>
+        <v>807131979</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79468416020</v>
+        <v>+79705254537</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Суслов', 'Иван', 'Максимович' ,'9840-1159-5047', '173155562', '+79468416020', '1'),</v>
+        <v>(NULL, 'Суслов', 'Иван', 'Максимович' ,'8074-9064-4275', '807131979', '+79705254537', '1'),</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1724,22 +1724,22 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9032-9036-9734</v>
+        <v>452-3912-1546</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>141444866</v>
+        <v>29996456</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79335103234</v>
+        <v>+79567220556</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Власов', 'Макар', 'Владимирович' ,'9032-9036-9734', '141444866', '+79335103234', '1'),</v>
+        <v>(NULL, 'Власов', 'Макар', 'Владимирович' ,'452-3912-1546', '29996456', '+79567220556', '1'),</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1754,22 +1754,22 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>3639-7169-5808</v>
+        <v>6366-6454-6879</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>4017759240</v>
+        <v>910837210</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79637024137</v>
+        <v>+79873285196</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Евдокимов', 'Ярослав', 'Николаевич' ,'3639-7169-5808', '4017759240', '+79637024137', '1'),</v>
+        <v>(NULL, 'Евдокимов', 'Ярослав', 'Николаевич' ,'6366-6454-6879', '910837210', '+79873285196', '1'),</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1784,22 +1784,22 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2615-5284-6764</v>
+        <v>3101-5916-37</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5438241935</v>
+        <v>7158416182</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79695306873</v>
+        <v>+79916714387</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Котова', 'Ева', 'Ярославовна' ,'2615-5284-6764', '5438241935', '+79695306873', '1'),</v>
+        <v>(NULL, 'Котова', 'Ева', 'Ярославовна' ,'3101-5916-37', '7158416182', '+79916714387', '1'),</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,22 +1814,22 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>6825-2616-5401</v>
+        <v>2933-9380-1461</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>5928919732</v>
+        <v>4541937913</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79458318015</v>
+        <v>+79734953893</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Андреев', 'Артём', 'Андреевич' ,'6825-2616-5401', '5928919732', '+79458318015', '1'),</v>
+        <v>(NULL, 'Андреев', 'Артём', 'Андреевич' ,'2933-9380-1461', '4541937913', '+79734953893', '1'),</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>9032-5108-7520</v>
+        <v>8101-383-8268</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8389643938</v>
+        <v>7889440300</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79392817296</v>
+        <v>+79531277549</v>
       </c>
       <c r="H16">
         <v>1</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Устинова', 'Александра', 'Тимофеевна' ,'9032-5108-7520', '8389643938', '+79392817296', '1'),</v>
+        <v>(NULL, 'Устинова', 'Александра', 'Тимофеевна' ,'8101-383-8268', '7889440300', '+79531277549', '1'),</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1874,22 +1874,22 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4545-5977-6261</v>
+        <v>4829-5391-7544</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7023370867</v>
+        <v>2399273914</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79798791858</v>
+        <v>+79578055977</v>
       </c>
       <c r="H17">
         <v>1</v>
       </c>
       <c r="I17" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Смирнова', 'Алёна', 'Александровна' ,'4545-5977-6261', '7023370867', '+79798791858', '1'),</v>
+        <v>(NULL, 'Смирнова', 'Алёна', 'Александровна' ,'4829-5391-7544', '2399273914', '+79578055977', '1'),</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
@@ -1904,22 +1904,22 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>949-2838-2820</v>
+        <v>9161-2105-4921</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>6948836041</v>
+        <v>4750710654</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79892636487</v>
+        <v>+79549244870</v>
       </c>
       <c r="H18">
         <v>1</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Смирнов', 'Лев', 'Олегович' ,'949-2838-2820', '6948836041', '+79892636487', '1'),</v>
+        <v>(NULL, 'Смирнов', 'Лев', 'Олегович' ,'9161-2105-4921', '4750710654', '+79549244870', '1'),</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
@@ -1934,22 +1934,22 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>768-7828-9171</v>
+        <v>1582-3853-9306</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>7529344125</v>
+        <v>8121410232</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79014986129</v>
+        <v>+79077523209</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанов', 'Фёдор', 'Филиппович' ,'768-7828-9171', '7529344125', '+79014986129', '1'),</v>
+        <v>(NULL, 'Степанов', 'Фёдор', 'Филиппович' ,'1582-3853-9306', '8121410232', '+79077523209', '1'),</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
@@ -1964,22 +1964,22 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>8722-8758-3600</v>
+        <v>9563-5231-606</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8570353458</v>
+        <v>8695432956</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79575184908</v>
+        <v>+79551717131</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Кольцов', 'Дмитрий', 'Ярославович' ,'8722-8758-3600', '8570353458', '+79575184908', '1'),</v>
+        <v>(NULL, 'Кольцов', 'Дмитрий', 'Ярославович' ,'9563-5231-606', '8695432956', '+79551717131', '1'),</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
@@ -1994,22 +1994,22 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>659-7768-5740</v>
+        <v>6794-4253-1216</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>687409174</v>
+        <v>6384694696</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79542959700</v>
+        <v>+79642838830</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанова', 'Елена', 'Васильевна' ,'659-7768-5740', '687409174', '+79542959700', '1'),</v>
+        <v>(NULL, 'Степанова', 'Елена', 'Васильевна' ,'6794-4253-1216', '6384694696', '+79642838830', '1'),</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2457-7881-3152</v>
+        <v>7182-4508-7256</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>3892143269</v>
+        <v>7879400950</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79661581542</v>
+        <v>+79002686890</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Голованова', 'Виктория', 'Григорьевна' ,'2457-7881-3152', '3892143269', '+79661581542', '1'),</v>
+        <v>(NULL, 'Голованова', 'Виктория', 'Григорьевна' ,'7182-4508-7256', '7879400950', '+79002686890', '1'),</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
@@ -2054,22 +2054,22 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>4596-3752-2410</v>
+        <v>1251-2443-270</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>8869515160</v>
+        <v>562721789</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79809475212</v>
+        <v>+79828681438</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Тимофеева', 'Анастасия', 'Ярославовна' ,'4596-3752-2410', '8869515160', '+79809475212', '1'),</v>
+        <v>(NULL, 'Тимофеева', 'Анастасия', 'Ярославовна' ,'1251-2443-270', '562721789', '+79828681438', '1'),</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
@@ -2084,22 +2084,22 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>2002-1260-9268</v>
+        <v>6500-6770-3978</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ref="F24:F25" ca="1" si="4">_xlfn.CONCAT(RANDBETWEEN(0,99),RANDBETWEEN(0,99),RANDBETWEEN(0,999999))</f>
-        <v>2341219079</v>
+        <v>8682688958</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79196591475</v>
+        <v>+79367672318</v>
       </c>
       <c r="H24">
         <v>1</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Шубина', 'Алиса', 'Фёдоровна' ,'2002-1260-9268', '2341219079', '+79196591475', '1'),</v>
+        <v>(NULL, 'Шубина', 'Алиса', 'Фёдоровна' ,'6500-6770-3978', '8682688958', '+79367672318', '1'),</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
@@ -2114,22 +2114,22 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>1027-3906-3976</v>
+        <v>6016-608-2253</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>4298365082</v>
+        <v>9565606708</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>+79791630221</v>
+        <v>+79248019565</v>
       </c>
       <c r="H25">
         <v>1</v>
       </c>
       <c r="I25" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>(NULL, 'Степанов', 'Владислав', 'Александрович' ,'1027-3906-3976', '4298365082', '+79791630221', '1'),</v>
+        <v>(NULL, 'Степанов', 'Владислав', 'Александрович' ,'6016-608-2253', '9565606708', '+79248019565', '1'),</v>
       </c>
     </row>
     <row r="29" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
